--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H2">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I2">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J2">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.77583495225271</v>
+        <v>8.882730333333333</v>
       </c>
       <c r="N2">
-        <v>8.77583495225271</v>
+        <v>26.648191</v>
       </c>
       <c r="O2">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="P2">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="Q2">
-        <v>14.04865841248683</v>
+        <v>1587.162394933215</v>
       </c>
       <c r="R2">
-        <v>14.04865841248683</v>
+        <v>14284.46155439893</v>
       </c>
       <c r="S2">
-        <v>0.3952784766375619</v>
+        <v>0.8985725480556852</v>
       </c>
       <c r="T2">
-        <v>0.3952784766375619</v>
+        <v>0.8985725480556852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -593,111 +596,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H3">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I3">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J3">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.6942360070977091</v>
+        <v>0.008116333333333333</v>
       </c>
       <c r="N3">
-        <v>0.6942360070977091</v>
+        <v>0.024349</v>
       </c>
       <c r="O3">
-        <v>0.07330842715726903</v>
+        <v>0.0008433110770878936</v>
       </c>
       <c r="P3">
-        <v>0.07330842715726903</v>
+        <v>0.0008433110770878937</v>
       </c>
       <c r="Q3">
-        <v>1.111356876517024</v>
+        <v>1.450222912100444</v>
       </c>
       <c r="R3">
-        <v>1.111356876517024</v>
+        <v>13.052006208904</v>
       </c>
       <c r="S3">
-        <v>0.03126956612169247</v>
+        <v>0.0008210442116918134</v>
       </c>
       <c r="T3">
-        <v>0.03126956612169247</v>
+        <v>0.0008210442116918135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.67994542379549</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H4">
-        <v>1.67994542379549</v>
+        <v>536.038696</v>
       </c>
       <c r="I4">
-        <v>0.4476274597301756</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J4">
-        <v>0.4476274597301756</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.77583495225271</v>
+        <v>0.7335180000000001</v>
       </c>
       <c r="N4">
-        <v>8.77583495225271</v>
+        <v>2.200554</v>
       </c>
       <c r="O4">
-        <v>0.926691572842731</v>
+        <v>0.07621469316727886</v>
       </c>
       <c r="P4">
-        <v>0.926691572842731</v>
+        <v>0.07621469316727887</v>
       </c>
       <c r="Q4">
-        <v>14.74292376802145</v>
+        <v>131.064677404176</v>
       </c>
       <c r="R4">
-        <v>14.74292376802145</v>
+        <v>1179.582096637584</v>
       </c>
       <c r="S4">
-        <v>0.4148125947049526</v>
+        <v>0.07420231320445468</v>
       </c>
       <c r="T4">
-        <v>0.4148125947049526</v>
+        <v>0.0742023132044547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.67994542379549</v>
+        <v>1.627176</v>
       </c>
       <c r="H5">
-        <v>1.67994542379549</v>
+        <v>4.881528</v>
       </c>
       <c r="I5">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J5">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6942360070977091</v>
+        <v>8.882730333333333</v>
       </c>
       <c r="N5">
-        <v>0.6942360070977091</v>
+        <v>26.648191</v>
       </c>
       <c r="O5">
-        <v>0.07330842715726903</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="P5">
-        <v>0.07330842715726903</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="Q5">
-        <v>1.16627860315785</v>
+        <v>14.453765612872</v>
       </c>
       <c r="R5">
-        <v>1.16627860315785</v>
+        <v>130.083890515848</v>
       </c>
       <c r="S5">
-        <v>0.03281486502522295</v>
+        <v>0.008183004484745581</v>
       </c>
       <c r="T5">
-        <v>0.03281486502522295</v>
+        <v>0.008183004484745581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.472219217564681</v>
+        <v>1.627176</v>
       </c>
       <c r="H6">
-        <v>0.472219217564681</v>
+        <v>4.881528</v>
       </c>
       <c r="I6">
-        <v>0.1258244975105701</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J6">
-        <v>0.1258244975105701</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.77583495225271</v>
+        <v>0.008116333333333333</v>
       </c>
       <c r="N6">
-        <v>8.77583495225271</v>
+        <v>0.024349</v>
       </c>
       <c r="O6">
-        <v>0.926691572842731</v>
+        <v>0.0008433110770878936</v>
       </c>
       <c r="P6">
-        <v>0.926691572842731</v>
+        <v>0.0008433110770878937</v>
       </c>
       <c r="Q6">
-        <v>4.144117914629555</v>
+        <v>0.013206702808</v>
       </c>
       <c r="R6">
-        <v>4.144117914629555</v>
+        <v>0.118860325272</v>
       </c>
       <c r="S6">
-        <v>0.1166005015002165</v>
+        <v>7.476979439207342E-06</v>
       </c>
       <c r="T6">
-        <v>0.1166005015002165</v>
+        <v>7.476979439207343E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.627176</v>
+      </c>
+      <c r="H7">
+        <v>4.881528</v>
+      </c>
+      <c r="I7">
+        <v>0.00886621751136806</v>
+      </c>
+      <c r="J7">
+        <v>0.00886621751136806</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7335180000000001</v>
+      </c>
+      <c r="N7">
+        <v>2.200554</v>
+      </c>
+      <c r="O7">
+        <v>0.07621469316727886</v>
+      </c>
+      <c r="P7">
+        <v>0.07621469316727887</v>
+      </c>
+      <c r="Q7">
+        <v>1.193562885168</v>
+      </c>
+      <c r="R7">
+        <v>10.742065966512</v>
+      </c>
+      <c r="S7">
+        <v>0.0006757360471832714</v>
+      </c>
+      <c r="T7">
+        <v>0.0006757360471832715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.587116666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.76135</v>
+      </c>
+      <c r="I8">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="J8">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.882730333333333</v>
+      </c>
+      <c r="N8">
+        <v>26.648191</v>
+      </c>
+      <c r="O8">
+        <v>0.9229419957556332</v>
+      </c>
+      <c r="P8">
+        <v>0.9229419957556332</v>
+      </c>
+      <c r="Q8">
+        <v>22.98065969087222</v>
+      </c>
+      <c r="R8">
+        <v>206.82593721785</v>
+      </c>
+      <c r="S8">
+        <v>0.01301050856569503</v>
+      </c>
+      <c r="T8">
+        <v>0.01301050856569503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.587116666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.76135</v>
+      </c>
+      <c r="I9">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="J9">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.008116333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.024349</v>
+      </c>
+      <c r="O9">
+        <v>0.0008433110770878936</v>
+      </c>
+      <c r="P9">
+        <v>0.0008433110770878937</v>
+      </c>
+      <c r="Q9">
+        <v>0.02099790123888889</v>
+      </c>
+      <c r="R9">
+        <v>0.18898111115</v>
+      </c>
+      <c r="S9">
+        <v>1.188796917081944E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.188796917081945E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.587116666666667</v>
+      </c>
+      <c r="H10">
+        <v>7.76135</v>
+      </c>
+      <c r="I10">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="J10">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7335180000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.200554</v>
+      </c>
+      <c r="O10">
+        <v>0.07621469316727886</v>
+      </c>
+      <c r="P10">
+        <v>0.07621469316727887</v>
+      </c>
+      <c r="Q10">
+        <v>1.8976966431</v>
+      </c>
+      <c r="R10">
+        <v>17.0792697879</v>
+      </c>
+      <c r="S10">
+        <v>0.001074381621862229</v>
+      </c>
+      <c r="T10">
+        <v>0.001074381621862229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.631529</v>
+      </c>
+      <c r="H11">
+        <v>1.894587</v>
+      </c>
+      <c r="I11">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J11">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.882730333333333</v>
+      </c>
+      <c r="N11">
+        <v>26.648191</v>
+      </c>
+      <c r="O11">
+        <v>0.9229419957556332</v>
+      </c>
+      <c r="P11">
+        <v>0.9229419957556332</v>
+      </c>
+      <c r="Q11">
+        <v>5.609701804679666</v>
+      </c>
+      <c r="R11">
+        <v>50.487316242117</v>
+      </c>
+      <c r="S11">
+        <v>0.003175934649507424</v>
+      </c>
+      <c r="T11">
+        <v>0.003175934649507424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.472219217564681</v>
-      </c>
-      <c r="H7">
-        <v>0.472219217564681</v>
-      </c>
-      <c r="I7">
-        <v>0.1258244975105701</v>
-      </c>
-      <c r="J7">
-        <v>0.1258244975105701</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.6942360070977091</v>
-      </c>
-      <c r="N7">
-        <v>0.6942360070977091</v>
-      </c>
-      <c r="O7">
-        <v>0.07330842715726903</v>
-      </c>
-      <c r="P7">
-        <v>0.07330842715726903</v>
-      </c>
-      <c r="Q7">
-        <v>0.3278315840769085</v>
-      </c>
-      <c r="R7">
-        <v>0.3278315840769085</v>
-      </c>
-      <c r="S7">
-        <v>0.009223996010353605</v>
-      </c>
-      <c r="T7">
-        <v>0.009223996010353605</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.631529</v>
+      </c>
+      <c r="H12">
+        <v>1.894587</v>
+      </c>
+      <c r="I12">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J12">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008116333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.024349</v>
+      </c>
+      <c r="O12">
+        <v>0.0008433110770878936</v>
+      </c>
+      <c r="P12">
+        <v>0.0008433110770878937</v>
+      </c>
+      <c r="Q12">
+        <v>0.005125699873666667</v>
+      </c>
+      <c r="R12">
+        <v>0.046131298863</v>
+      </c>
+      <c r="S12">
+        <v>2.901916786053367E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.901916786053368E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.631529</v>
+      </c>
+      <c r="H13">
+        <v>1.894587</v>
+      </c>
+      <c r="I13">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J13">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7335180000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.200554</v>
+      </c>
+      <c r="O13">
+        <v>0.07621469316727886</v>
+      </c>
+      <c r="P13">
+        <v>0.07621469316727887</v>
+      </c>
+      <c r="Q13">
+        <v>0.4632378890220001</v>
+      </c>
+      <c r="R13">
+        <v>4.169141001198001</v>
+      </c>
+      <c r="S13">
+        <v>0.0002622622937786719</v>
+      </c>
+      <c r="T13">
+        <v>0.0002622622937786719</v>
       </c>
     </row>
   </sheetData>
